--- a/Requirements/IDbikeSoftwareRequirements.xlsx
+++ b/Requirements/IDbikeSoftwareRequirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\e-bike\Documentation.git\trunk\Requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5ED252-3289-4AFD-9CB1-AA475CFFAC93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6336E29F-D46C-4D1C-B8BD-B37D029E0E93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="345" yWindow="345" windowWidth="2400" windowHeight="585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>ID</t>
   </si>
@@ -88,17 +88,86 @@
     <t>1.5</t>
   </si>
   <si>
-    <t>Functional Requirements</t>
-  </si>
-  <si>
-    <t>Main Requirements</t>
-  </si>
-  <si>
     <t>Goal</t>
   </si>
   <si>
-    <t>"An electric bicycle has to feel 
-and look like a conventional bike"</t>
+    <t>Start in a safe and controlled manner, in all riding modes (eco to boost)</t>
+  </si>
+  <si>
+    <t>Be intuitive, through a swift and reactive response on the cyclist's pedal torque input. The pedal support is obvious and natural like power steering. Perfect and harmonious synergy between man and machine, riding your bike without worries and without thinking</t>
+  </si>
+  <si>
+    <t>Be repeatable and reproducible under all circumstances, with ride predictability and stability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Have no influence of:
+        Aging of the bike and drive system
+        Weather conditions and temperature
+        Weight of the rider
+        Road conditions and vibrations</t>
+  </si>
+  <si>
+    <t>"An electric bicycle has to look and feel like a conventional bike"</t>
+  </si>
+  <si>
+    <t>Safe</t>
+  </si>
+  <si>
+    <t>Intuitive</t>
+  </si>
+  <si>
+    <t>Consistant</t>
+  </si>
+  <si>
+    <t>Convert sensor input to current output</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Brake sensor</t>
+  </si>
+  <si>
+    <t>Motor voltage</t>
+  </si>
+  <si>
+    <t>Motor current</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Enable gate drivers</t>
+  </si>
+  <si>
+    <t>Enable light</t>
+  </si>
+  <si>
+    <t>Motor PWM</t>
+  </si>
+  <si>
+    <t>LIN transceiver sleep</t>
+  </si>
+  <si>
+    <t>Communication</t>
+  </si>
+  <si>
+    <t>LIN</t>
+  </si>
+  <si>
+    <t>(UART)</t>
+  </si>
+  <si>
+    <t>I2C</t>
+  </si>
+  <si>
+    <t>Control</t>
   </si>
 </sst>
 </file>
@@ -134,12 +203,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -420,15 +488,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="118.42578125" customWidth="1"/>
+    <col min="2" max="2" width="102" style="1" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
   </cols>
@@ -437,8 +505,8 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>21</v>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -451,33 +519,49 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>20</v>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -486,66 +570,147 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="2" t="s">
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
+    <row r="63" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="2:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
+    <row r="64" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="2" t="s">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="2" t="s">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="2" t="s">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="2:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
+    <row r="68" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="2" t="s">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="2" t="s">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="2" t="s">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Requirements/IDbikeSoftwareRequirements.xlsx
+++ b/Requirements/IDbikeSoftwareRequirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\e-bike\Documentation.git\trunk\Requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6336E29F-D46C-4D1C-B8BD-B37D029E0E93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD73675-9CC6-4183-A40B-1C4548743073}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="345" yWindow="345" windowWidth="2400" windowHeight="585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -490,7 +490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
